--- a/src/predicciones/holt_winters/producto_91.xlsx
+++ b/src/predicciones/holt_winters/producto_91.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,1114 +404,1268 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44931</v>
       </c>
       <c r="B2">
-        <v>1.912580108837296</v>
+        <v>1.063888950219286</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44938</v>
       </c>
       <c r="B3">
-        <v>1.736187283320835</v>
+        <v>2.056516334554803</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44939</v>
       </c>
       <c r="B4">
-        <v>1.257361282727139</v>
+        <v>1.004860231278565</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44944</v>
       </c>
       <c r="B5">
-        <v>0.8337693095246546</v>
+        <v>1.067506373732712</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44946</v>
       </c>
       <c r="B6">
-        <v>0.8026116309192843</v>
+        <v>2.069763128921429</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44947</v>
       </c>
       <c r="B7">
-        <v>1.91795601925852</v>
+        <v>1.075487650287788</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44948</v>
       </c>
       <c r="B8">
-        <v>1.993688651670806</v>
+        <v>1.080475133420702</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44950</v>
       </c>
       <c r="B9">
-        <v>1.902704605604862</v>
+        <v>1.07834438217554</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44955</v>
       </c>
       <c r="B10">
-        <v>1.726311780088401</v>
+        <v>2.070971766511057</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44956</v>
       </c>
       <c r="B11">
-        <v>1.247485779494705</v>
+        <v>1.019315663234819</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44958</v>
       </c>
       <c r="B12">
-        <v>0.823893806292221</v>
+        <v>1.081961805688966</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44963</v>
       </c>
       <c r="B13">
-        <v>0.7927361276868508</v>
+        <v>2.084218560877683</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44965</v>
       </c>
       <c r="B14">
-        <v>1.908080516026087</v>
+        <v>1.089943082244042</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44968</v>
       </c>
       <c r="B15">
-        <v>1.983813148438372</v>
+        <v>1.094930565376956</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44969</v>
       </c>
       <c r="B16">
-        <v>1.892829102372429</v>
+        <v>1.092799814131794</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44973</v>
       </c>
       <c r="B17">
-        <v>1.716436276855967</v>
+        <v>2.085427198467311</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44977</v>
       </c>
       <c r="B18">
-        <v>1.237610276262271</v>
+        <v>1.033771095191073</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44979</v>
       </c>
       <c r="B19">
-        <v>0.8140183030597872</v>
+        <v>1.096417237645221</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44980</v>
       </c>
       <c r="B20">
-        <v>0.782860624454417</v>
+        <v>2.098673992833937</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44981</v>
       </c>
       <c r="B21">
-        <v>1.898205012793653</v>
+        <v>1.104398514200296</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44985</v>
       </c>
       <c r="B22">
-        <v>1.973937645205938</v>
+        <v>1.10938599733321</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>44987</v>
       </c>
       <c r="B23">
-        <v>1.882953599139995</v>
+        <v>1.107255246088048</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>44992</v>
       </c>
       <c r="B24">
-        <v>1.706560773623534</v>
+        <v>2.099882630423565</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45006</v>
       </c>
       <c r="B25">
-        <v>1.227734773029838</v>
+        <v>1.048226527147327</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45008</v>
       </c>
       <c r="B26">
-        <v>0.8041427998273534</v>
+        <v>1.110872669601475</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45009</v>
       </c>
       <c r="B27">
-        <v>0.7729851212219832</v>
+        <v>2.113129424790191</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45014</v>
       </c>
       <c r="B28">
-        <v>1.888329509561219</v>
+        <v>1.118853946156551</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45017</v>
       </c>
       <c r="B29">
-        <v>1.964062141973504</v>
+        <v>1.123841429289465</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45019</v>
       </c>
       <c r="B30">
-        <v>1.873078095907561</v>
+        <v>1.121710678044302</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45020</v>
       </c>
       <c r="B31">
-        <v>1.6966852703911</v>
+        <v>2.11433806237982</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45025</v>
       </c>
       <c r="B32">
-        <v>1.217859269797404</v>
+        <v>1.062681959103581</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45031</v>
       </c>
       <c r="B33">
-        <v>0.7942672965949196</v>
+        <v>1.125328101557729</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45032</v>
       </c>
       <c r="B34">
-        <v>0.7631096179895493</v>
+        <v>2.127584856746445</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45041</v>
       </c>
       <c r="B35">
-        <v>1.878454006328786</v>
+        <v>1.133309378112804</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45044</v>
       </c>
       <c r="B36">
-        <v>1.954186638741071</v>
+        <v>1.138296861245719</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45046</v>
       </c>
       <c r="B37">
-        <v>1.863202592675127</v>
+        <v>1.136166110000556</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45050</v>
       </c>
       <c r="B38">
-        <v>1.686809767158666</v>
+        <v>2.128793494336073</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45051</v>
       </c>
       <c r="B39">
-        <v>1.20798376656497</v>
+        <v>1.077137391059835</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45059</v>
       </c>
       <c r="B40">
-        <v>0.7843917933624858</v>
+        <v>1.139783533513983</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45061</v>
       </c>
       <c r="B41">
-        <v>0.7532341147571155</v>
+        <v>2.1420402887027</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45066</v>
       </c>
       <c r="B42">
-        <v>1.868578503096352</v>
+        <v>1.147764810069059</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45070</v>
       </c>
       <c r="B43">
-        <v>1.944311135508637</v>
+        <v>1.152752293201973</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45073</v>
       </c>
       <c r="B44">
-        <v>1.853327089442694</v>
+        <v>1.150621541956811</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45077</v>
       </c>
       <c r="B45">
-        <v>1.676934263926232</v>
+        <v>2.143248926292328</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45085</v>
       </c>
       <c r="B46">
-        <v>1.198108263332536</v>
+        <v>1.09159282301609</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45092</v>
       </c>
       <c r="B47">
-        <v>0.774516290130052</v>
+        <v>1.154238965470237</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45095</v>
       </c>
       <c r="B48">
-        <v>0.7433586115246817</v>
+        <v>2.156495720658953</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45097</v>
       </c>
       <c r="B49">
-        <v>1.858702999863918</v>
+        <v>1.162220242025313</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45106</v>
       </c>
       <c r="B50">
-        <v>1.934435632276203</v>
+        <v>1.167207725158227</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45107</v>
       </c>
       <c r="B51">
-        <v>1.84345158621026</v>
+        <v>1.165076973913065</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45109</v>
       </c>
       <c r="B52">
-        <v>1.667058760693799</v>
+        <v>2.157704358248582</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45112</v>
       </c>
       <c r="B53">
-        <v>1.188232760100103</v>
+        <v>1.106048254972344</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45115</v>
       </c>
       <c r="B54">
-        <v>0.7646407868976182</v>
+        <v>1.168694397426491</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45120</v>
       </c>
       <c r="B55">
-        <v>0.7334831082922479</v>
+        <v>2.170951152615208</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45126</v>
       </c>
       <c r="B56">
-        <v>1.848827496631484</v>
+        <v>1.176675673981567</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45130</v>
       </c>
       <c r="B57">
-        <v>1.924560129043769</v>
+        <v>1.181663157114481</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45135</v>
       </c>
       <c r="B58">
-        <v>1.833576082977826</v>
+        <v>1.179532405869319</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45140</v>
       </c>
       <c r="B59">
-        <v>1.657183257461365</v>
+        <v>2.172159790204836</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45142</v>
       </c>
       <c r="B60">
-        <v>1.178357256867669</v>
+        <v>1.120503686928598</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45144</v>
       </c>
       <c r="B61">
-        <v>0.7547652836651846</v>
+        <v>1.183149829382746</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45145</v>
       </c>
       <c r="B62">
-        <v>0.7236076050598141</v>
+        <v>2.185406584571462</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45147</v>
       </c>
       <c r="B63">
-        <v>1.83895199339905</v>
+        <v>1.191131105937821</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45149</v>
       </c>
       <c r="B64">
-        <v>1.914684625811335</v>
+        <v>1.196118589070735</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45150</v>
       </c>
       <c r="B65">
-        <v>1.823700579745392</v>
+        <v>1.193987837825573</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45152</v>
       </c>
       <c r="B66">
-        <v>1.647307754228931</v>
+        <v>2.18661522216109</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45154</v>
       </c>
       <c r="B67">
-        <v>1.168481753635235</v>
+        <v>1.134959118884852</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45162</v>
       </c>
       <c r="B68">
-        <v>0.7448897804327508</v>
+        <v>1.197605261339</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45163</v>
       </c>
       <c r="B69">
-        <v>0.7137321018273803</v>
+        <v>2.199862016527716</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45169</v>
       </c>
       <c r="B70">
-        <v>1.829076490166616</v>
+        <v>1.205586537894075</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45170</v>
       </c>
       <c r="B71">
-        <v>1.904809122578902</v>
+        <v>1.21057402102699</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45172</v>
       </c>
       <c r="B72">
-        <v>1.813825076512958</v>
+        <v>1.208443269781827</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45175</v>
       </c>
       <c r="B73">
-        <v>1.637432250996497</v>
+        <v>2.201070654117344</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45181</v>
       </c>
       <c r="B74">
-        <v>1.158606250402801</v>
+        <v>1.149414550841106</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45182</v>
       </c>
       <c r="B75">
-        <v>0.735014277200317</v>
+        <v>1.212060693295254</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45184</v>
       </c>
       <c r="B76">
-        <v>0.7038565985949468</v>
+        <v>2.21431744848397</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45189</v>
       </c>
       <c r="B77">
-        <v>1.819200986934183</v>
+        <v>1.22004196985033</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45195</v>
       </c>
       <c r="B78">
-        <v>1.894933619346468</v>
+        <v>1.225029452983244</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45197</v>
       </c>
       <c r="B79">
-        <v>1.803949573280525</v>
+        <v>1.222898701738081</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45206</v>
       </c>
       <c r="B80">
-        <v>1.627556747764063</v>
+        <v>2.215526086073599</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45210</v>
       </c>
       <c r="B81">
-        <v>1.148730747170367</v>
+        <v>1.16386998279736</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45212</v>
       </c>
       <c r="B82">
-        <v>0.7251387739678832</v>
+        <v>1.226516125251508</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45215</v>
       </c>
       <c r="B83">
-        <v>0.693981095362513</v>
+        <v>2.228772880440224</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45216</v>
       </c>
       <c r="B84">
-        <v>1.809325483701749</v>
+        <v>1.234497401806584</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45217</v>
       </c>
       <c r="B85">
-        <v>1.885058116114034</v>
+        <v>1.239484884939498</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45219</v>
       </c>
       <c r="B86">
-        <v>1.794074070048091</v>
+        <v>1.237354133694335</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45221</v>
       </c>
       <c r="B87">
-        <v>1.61768124453163</v>
+        <v>2.229981518029852</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45225</v>
       </c>
       <c r="B88">
-        <v>1.138855243937934</v>
+        <v>1.178325414753614</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45229</v>
       </c>
       <c r="B89">
-        <v>0.7152632707354494</v>
+        <v>1.240971557207762</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45233</v>
       </c>
       <c r="B90">
-        <v>0.6841055921300792</v>
+        <v>2.243228312396479</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45235</v>
       </c>
       <c r="B91">
-        <v>1.799449980469315</v>
+        <v>1.248952833762838</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45242</v>
       </c>
       <c r="B92">
-        <v>1.8751826128816</v>
+        <v>1.253940316895752</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45243</v>
       </c>
       <c r="B93">
-        <v>1.784198566815657</v>
+        <v>1.25180956565059</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45247</v>
       </c>
       <c r="B94">
-        <v>1.607805741299196</v>
+        <v>2.244436949986107</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>45253</v>
       </c>
       <c r="B95">
-        <v>1.1289797407055</v>
+        <v>1.192780846709869</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
+      <c r="A96" s="2">
+        <v>45259</v>
       </c>
       <c r="B96">
-        <v>0.7053877675030156</v>
+        <v>1.255426989164016</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
+      <c r="A97" s="2">
+        <v>45262</v>
       </c>
       <c r="B97">
-        <v>0.6742300888976454</v>
+        <v>2.257683744352732</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
+      <c r="A98" s="2">
+        <v>45264</v>
       </c>
       <c r="B98">
-        <v>1.789574477236882</v>
+        <v>1.263408265719092</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
+      <c r="A99" s="2">
+        <v>45267</v>
       </c>
       <c r="B99">
-        <v>1.865307109649167</v>
+        <v>1.268395748852006</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
+      <c r="A100" s="2">
+        <v>45272</v>
       </c>
       <c r="B100">
-        <v>1.774323063583223</v>
+        <v>1.266264997606844</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
+      <c r="A101" s="2">
+        <v>45274</v>
       </c>
       <c r="B101">
-        <v>1.597930238066762</v>
+        <v>2.258892381942361</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
+      <c r="A102" s="2">
+        <v>45282</v>
       </c>
       <c r="B102">
-        <v>1.119104237473066</v>
+        <v>1.207236278666123</v>
       </c>
       <c r="C102">
         <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45284</v>
+      </c>
+      <c r="B103">
+        <v>1.26988242112027</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45286</v>
+      </c>
+      <c r="B104">
+        <v>2.272139176308987</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45287</v>
+      </c>
+      <c r="B105">
+        <v>1.277863697675346</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B106">
+        <v>1.28285118080826</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B107">
+        <v>1.280720429563098</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45298</v>
+      </c>
+      <c r="B108">
+        <v>2.273347813898615</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45301</v>
+      </c>
+      <c r="B109">
+        <v>1.221691710622377</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45308</v>
+      </c>
+      <c r="B110">
+        <v>1.284337853076525</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45309</v>
+      </c>
+      <c r="B111">
+        <v>2.286594608265241</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45319</v>
+      </c>
+      <c r="B112">
+        <v>1.2923191296316</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B113">
+        <v>1.297306612764514</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B114">
+        <v>1.295175861519352</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45336</v>
+      </c>
+      <c r="B115">
+        <v>2.287803245854869</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B116">
+        <v>1.236147142578631</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
